--- a/Employee0/attendance.xlsx
+++ b/Employee0/attendance.xlsx
@@ -443,7 +443,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>300.0</t>
         </is>
       </c>
     </row>
